--- a/sources/Karte.xlsx
+++ b/sources/Karte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Documents/HA Sprachtypologie/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Desktop/HA Sprachtypologie/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27640" windowHeight="15440"/>
+    <workbookView xWindow="680" yWindow="960" windowWidth="11880" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,6 @@
     <t>Spanisch</t>
   </si>
   <si>
-    <t>Spanien</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>-4.00</t>
-  </si>
-  <si>
     <t>Italienisch</t>
   </si>
   <si>
@@ -327,6 +318,15 @@
   </si>
   <si>
     <t>Sprache</t>
+  </si>
+  <si>
+    <t>Mexiko</t>
+  </si>
+  <si>
+    <t>19.21</t>
+  </si>
+  <si>
+    <t>-99.38</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -772,43 +772,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -820,9 +820,9 @@
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -834,63 +834,63 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>51</v>
@@ -904,21 +904,21 @@
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>58</v>
@@ -929,10 +929,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>61</v>
@@ -943,38 +943,38 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>72</v>
@@ -988,21 +988,21 @@
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>79</v>
@@ -1016,24 +1016,24 @@
         <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,22 +1046,22 @@
       <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
+      <c r="D25" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1069,30 +1069,33 @@
         <v>94</v>
       </c>
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>